--- a/BOMs/BOM-full.xlsx
+++ b/BOMs/BOM-full.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marka\Fall-2022\Junior-Design\555-timer-PWM-fan\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marka\Fall-2022\Junior-Design\555-timer-PWM-fan\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A453CDE5-8B24-4B30-862D-520A10CD6126}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6581B91E-DC9D-4753-80DA-1C600F6A5906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,14 +36,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
   <si>
     <t>Name/Desc</t>
   </si>
   <si>
-    <t>MFR</t>
-  </si>
-  <si>
     <t>MFR P/N</t>
   </si>
   <si>
@@ -72,6 +69,108 @@
   </si>
   <si>
     <t>https://www.sparkfun.com/products/13144</t>
+  </si>
+  <si>
+    <t>DigiKey</t>
+  </si>
+  <si>
+    <t>FAD1-08025CBAW11-A</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/qualtek/FAD1-08025CBAW11-A/7724558</t>
+  </si>
+  <si>
+    <t>12VDC Fan, 2 lead</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Screw Terminal, 5pos </t>
+  </si>
+  <si>
+    <t>Digikey</t>
+  </si>
+  <si>
+    <t>TB007-508-05BE</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/cui-devices/TB007-508-05BE/10064130?utm_adgroup=General&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=PMax:%20Smart%20Shopping_Product_Zombie%20SKUS&amp;utm_term=&amp;utm_content=General&amp;gclid=Cj0KCQjwguGYBhDRARIsAHgRm4_QT78JHWN5yZthIv1F_fY1XA9s3xyhUANqPKIPz0giTOhrk4LcPAEaAkbaEALw_wcB</t>
+  </si>
+  <si>
+    <t>Resistor, 1 KOhm, TH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resistor, 220, TH </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Diode </t>
+  </si>
+  <si>
+    <t>Capacitor, 10nF, TH</t>
+  </si>
+  <si>
+    <t>LED</t>
+  </si>
+  <si>
+    <t>LED Holder</t>
+  </si>
+  <si>
+    <t>Fan grill</t>
+  </si>
+  <si>
+    <t>Threaded inserts, M3</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/LitOrange-Standoff-Threaded-Motherboard-Assortment/dp/B07PK23VC4/ref=sr_1_3?crid=17QHLUDUQK7DV&amp;keywords=m3%2Bstandoff&amp;qid=1662563519&amp;sprefix=m3%2Bstandoff%2Caps%2C338&amp;sr=8-3&amp;th=1</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Digikey </t>
+  </si>
+  <si>
+    <t>Vendor</t>
+  </si>
+  <si>
+    <t>1N5408G-T</t>
+  </si>
+  <si>
+    <t>Standoffs, M3, brass</t>
+  </si>
+  <si>
+    <t>https://www.adafruit.com/product/2177</t>
+  </si>
+  <si>
+    <t>Adafruit</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/orion-fans/WMG80B/2621309?utm_adgroup=Fans%20-%20Finger%20Guards%2C%20Filters%20%26%20Sleeves&amp;utm_source=google&amp;utm_medium=cpc&amp;utm_campaign=Shopping_Product_Fans%2C%20Thermal%20Management&amp;utm_term=&amp;utm_content=Fans%20-%20Finger%20Guards%2C%20Filters%20%26%20Sleeves&amp;gclid=Cj0KCQjwguGYBhDRARIsAHgRm4-2MSP79XML3Gcjn0HcGkDRcnRPdauzHiW_tKp1WswrlmQSBC6X6fgaAtJkEALw_wcB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fume extractor filter </t>
+  </si>
+  <si>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>WMG80B</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/80mm-Black-Fan-Grill-Guard/dp/B0014WZEQI</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/diodes-incorporated/1N5408G-T/128597</t>
+  </si>
+  <si>
+    <t>Rubber Feet</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Black-Rubber-Feet-Stick-Bumper/dp/B06XPFDQBH/ref=sr_1_7?crid=3JGEGRWPQVFFG&amp;keywords=rubber+feet&amp;qid=1662564237&amp;sprefix=rubber+fee%2Caps%2C191&amp;sr=8-7</t>
+  </si>
+  <si>
+    <t>Machine Screws, M3</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/DYWISHKEY-Pieces-Stainless-Socket-Screws/dp/B07VPGQ1RZ/ref=sr_1_3?crid=XJIFUT6QS0ZK&amp;keywords=m3+screw+long&amp;qid=1662566283&amp;sprefix=m3+screw+long%2Caps%2C72&amp;sr=8-3</t>
   </si>
 </sst>
 </file>
@@ -81,7 +180,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -93,6 +192,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -161,10 +268,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -176,12 +284,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -460,24 +572,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J2"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="8.88671875" style="6"/>
     <col min="2" max="2" width="29.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.44140625" customWidth="1"/>
-    <col min="4" max="4" width="17.109375" customWidth="1"/>
-    <col min="5" max="5" width="14" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" style="8" customWidth="1"/>
-    <col min="7" max="7" width="18.33203125" customWidth="1"/>
-    <col min="8" max="8" width="26.5546875" customWidth="1"/>
+    <col min="3" max="3" width="13.44140625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="20.21875" style="8" customWidth="1"/>
+    <col min="5" max="5" width="6.6640625" style="8" customWidth="1"/>
+    <col min="6" max="6" width="14.77734375" style="7" customWidth="1"/>
+    <col min="7" max="7" width="37.77734375" customWidth="1"/>
+    <col min="8" max="8" width="26.5546875" style="8" customWidth="1"/>
     <col min="9" max="9" width="15.109375" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="19.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.35">
@@ -486,57 +598,398 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>6</v>
       </c>
       <c r="I1" s="4"/>
       <c r="J1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="7">
+        <v>16.95</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
-      </c>
-      <c r="E2">
-        <v>2</v>
-      </c>
-      <c r="F2" s="8">
-        <v>16.95</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
       </c>
       <c r="H2" s="7">
         <f>E2*F2</f>
-        <v>33.9</v>
+        <v>16.95</v>
       </c>
       <c r="J2" s="7">
-        <f>SUM(H2:H99)</f>
-        <v>33.9</v>
+        <f>SUM(H2:H98)</f>
+        <v>27.959999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="8">
+        <v>1</v>
+      </c>
+      <c r="F3" s="7">
+        <v>8.1300000000000008</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" ref="H3:H16" si="0">E3*F3</f>
+        <v>8.1300000000000008</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="8">
+        <v>2</v>
+      </c>
+      <c r="F4" s="7">
+        <v>1.44</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="0"/>
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="8">
+        <v>2</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" s="8">
+        <v>1</v>
+      </c>
+      <c r="F6" s="7">
+        <v>0</v>
+      </c>
+      <c r="G6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="E7" s="8">
+        <v>3</v>
+      </c>
+      <c r="F7" s="7">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="8">
+        <v>2</v>
+      </c>
+      <c r="F8" s="7">
+        <v>0</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H8" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="8">
+        <v>1</v>
+      </c>
+      <c r="F9" s="7">
+        <v>0</v>
+      </c>
+      <c r="G9" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="8">
+        <v>2177</v>
+      </c>
+      <c r="E10" s="8">
+        <v>1</v>
+      </c>
+      <c r="F10" s="7">
+        <v>0</v>
+      </c>
+      <c r="G10" t="s">
+        <v>33</v>
+      </c>
+      <c r="H10" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" s="8">
+        <v>1</v>
+      </c>
+      <c r="F11" s="7">
+        <v>0</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="H11" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="E12" s="8">
+        <v>1</v>
+      </c>
+      <c r="F12" s="7">
+        <v>0</v>
+      </c>
+      <c r="G12" t="s">
+        <v>35</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E13" s="8">
+        <v>1</v>
+      </c>
+      <c r="F13" s="7">
+        <v>0</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="8">
+        <v>1</v>
+      </c>
+      <c r="F14" s="7">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>44</v>
+      </c>
+      <c r="H14" s="7">
+        <f t="shared" ref="H14" si="1">E14*F14</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="8">
+        <v>4</v>
+      </c>
+      <c r="F15" s="7">
+        <v>0</v>
+      </c>
+      <c r="G15" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" s="8">
+        <v>4</v>
+      </c>
+      <c r="F16" s="7">
+        <v>0</v>
+      </c>
+      <c r="G16" t="s">
+        <v>42</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G3" r:id="rId1" xr:uid="{713DFAB9-46D0-41B2-842A-C74E4056294E}"/>
+    <hyperlink ref="G11" r:id="rId2" xr:uid="{C63B6053-B37F-4B5A-B988-98B3AA898872}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
--- a/BOMs/BOM-full.xlsx
+++ b/BOMs/BOM-full.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\marka\Fall-2022\Junior-Design\555-timer-PWM-fan\BOMs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6581B91E-DC9D-4753-80DA-1C600F6A5906}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55104883-B74D-43B1-9330-4FE81B0C64BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="54">
   <si>
     <t>Name/Desc</t>
   </si>
@@ -171,6 +171,33 @@
   </si>
   <si>
     <t>https://www.amazon.com/DYWISHKEY-Pieces-Stainless-Socket-Screws/dp/B07VPGQ1RZ/ref=sr_1_3?crid=XJIFUT6QS0ZK&amp;keywords=m3+screw+long&amp;qid=1662566283&amp;sprefix=m3+screw+long%2Caps%2C72&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Power NMOS </t>
+  </si>
+  <si>
+    <t>LM395T/NOPB-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/texas-instruments/LM395T-NOPB/8902</t>
+  </si>
+  <si>
+    <t>120VAC to 12VDC Converter</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/ALITOVE-Converter-Cigarette-Transformer-Refrigerator/dp/B078RZQ9WY/</t>
+  </si>
+  <si>
+    <t>RCU-0C</t>
+  </si>
+  <si>
+    <t xml:space="preserve">test points </t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/en/products/detail/te-connectivity-amp-connectors/RCU-0C/2366048</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -272,7 +299,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -291,6 +318,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -572,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -643,9 +673,9 @@
         <f>E2*F2</f>
         <v>16.95</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="7" t="e">
         <f>SUM(H2:H98)</f>
-        <v>27.959999999999997</v>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -668,7 +698,7 @@
         <v>13</v>
       </c>
       <c r="H3" s="7">
-        <f t="shared" ref="H3:H16" si="0">E3*F3</f>
+        <f t="shared" ref="H3:H19" si="0">E3*F3</f>
         <v>8.1300000000000008</v>
       </c>
     </row>
@@ -709,9 +739,6 @@
       <c r="E5" s="8">
         <v>2</v>
       </c>
-      <c r="F5" s="7">
-        <v>0</v>
-      </c>
       <c r="G5" s="8" t="s">
         <v>28</v>
       </c>
@@ -733,9 +760,6 @@
       <c r="E6" s="8">
         <v>1</v>
       </c>
-      <c r="F6" s="7">
-        <v>0</v>
-      </c>
       <c r="G6" s="8" t="s">
         <v>28</v>
       </c>
@@ -757,15 +781,15 @@
       <c r="E7" s="8">
         <v>3</v>
       </c>
-      <c r="F7" s="7">
-        <v>0</v>
-      </c>
-      <c r="G7" s="8" t="s">
+      <c r="F7" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="G7" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
+      <c r="H7" s="7" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -781,9 +805,6 @@
       <c r="E8" s="8">
         <v>2</v>
       </c>
-      <c r="F8" s="7">
-        <v>0</v>
-      </c>
       <c r="G8" s="8" t="s">
         <v>28</v>
       </c>
@@ -805,9 +826,6 @@
       <c r="E9" s="8">
         <v>1</v>
       </c>
-      <c r="F9" s="7">
-        <v>0</v>
-      </c>
       <c r="G9" s="8" t="s">
         <v>28</v>
       </c>
@@ -829,9 +847,6 @@
       <c r="E10" s="8">
         <v>1</v>
       </c>
-      <c r="F10" s="7">
-        <v>0</v>
-      </c>
       <c r="G10" t="s">
         <v>33</v>
       </c>
@@ -853,9 +868,6 @@
       <c r="E11" s="8">
         <v>1</v>
       </c>
-      <c r="F11" s="7">
-        <v>0</v>
-      </c>
       <c r="G11" s="9" t="s">
         <v>39</v>
       </c>
@@ -877,9 +889,6 @@
       <c r="E12" s="8">
         <v>1</v>
       </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
       <c r="G12" t="s">
         <v>35</v>
       </c>
@@ -901,9 +910,6 @@
       <c r="E13" s="8">
         <v>1</v>
       </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
       <c r="G13" t="s">
         <v>27</v>
       </c>
@@ -925,9 +931,6 @@
       <c r="E14" s="8">
         <v>1</v>
       </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
       <c r="G14" t="s">
         <v>44</v>
       </c>
@@ -949,9 +952,6 @@
       <c r="E15" s="8">
         <v>4</v>
       </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
       <c r="G15" s="8" t="s">
         <v>28</v>
       </c>
@@ -973,13 +973,73 @@
       <c r="E16" s="8">
         <v>4</v>
       </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
       <c r="G16" t="s">
         <v>42</v>
       </c>
       <c r="H16" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="8">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>47</v>
+      </c>
+      <c r="H17" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C18" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E18" s="8">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H18" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="8">
+        <v>2</v>
+      </c>
+      <c r="G19" t="s">
+        <v>52</v>
+      </c>
+      <c r="H19" s="7">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -988,8 +1048,9 @@
   <hyperlinks>
     <hyperlink ref="G3" r:id="rId1" xr:uid="{713DFAB9-46D0-41B2-842A-C74E4056294E}"/>
     <hyperlink ref="G11" r:id="rId2" xr:uid="{C63B6053-B37F-4B5A-B988-98B3AA898872}"/>
+    <hyperlink ref="G7" r:id="rId3" xr:uid="{A1C9EFB6-F0DB-4D75-BDFF-D75079988624}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId4"/>
 </worksheet>
 </file>